--- a/xlsx/摩尔多瓦_intext.xlsx
+++ b/xlsx/摩尔多瓦_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="841">
   <si>
     <t>摩尔多瓦</t>
   </si>
@@ -29,7 +29,7 @@
     <t>化学年表</t>
   </si>
   <si>
-    <t>政策_政策_美國_摩尔多瓦</t>
+    <t>政策_政策_美国_摩尔多瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>摩爾多瓦國旗</t>
+    <t>摩尔多瓦国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6%E5%9B%BD%E5%BE%BD</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E4%BB%AC%E7%9A%84%E8%AF%AD%E8%A8%80</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>一級行政區</t>
+    <t>一级行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%91%8A%E8%8C%B2%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>加告茲自治區</t>
+    <t>加告兹自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E7%89%B9%E6%B2%B3</t>
   </si>
   <si>
-    <t>普魯特河</t>
+    <t>普鲁特河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%91%99%E6%B2%B3</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EET</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>烏克蘭人</t>
+    <t>乌克兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>俄羅斯人</t>
+    <t>俄罗斯人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%91%8A%E8%8C%B2%E4%BA%BA</t>
   </si>
   <si>
-    <t>加告茲人</t>
+    <t>加告兹人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A%E4%BA%BA</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>國家憲法</t>
+    <t>国家宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E4%B8%80%E5%88%B6</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6%E8%AE%AE%E4%BC%9A</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6%E6%80%BB%E7%BB%9F</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>摩尔多瓦總理</t>
+    <t>摩尔多瓦总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%BB%B4%E5%B0%94%C2%B7%E8%8F%B2%E5%88%A9%E6%99%AE</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%AE%89%C2%B7%E5%8D%A2%E6%99%AE</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6%E5%9B%BD%E5%AE%B6%E9%93%B6%E8%A1%8C</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6%E5%88%97%E4%BC%8A</t>
   </si>
   <si>
-    <t>摩爾多瓦列伊</t>
+    <t>摩尔多瓦列伊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%BC%E7%B3%BB%E6%95%B0</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.md</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國會員國</t>
+    <t>联合国会员国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E5%A5%91%E4%BA%9E</t>
   </si>
   <si>
-    <t>達契亞</t>
+    <t>达契亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>摩爾多瓦人</t>
+    <t>摩尔多瓦人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%8B%89%E5%87%A0%E4%BA%9A</t>
@@ -521,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9D%E8%A5%BF%E5%87%A1%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>川西凡尼亞</t>
+    <t>川西凡尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E9%81%94%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>摩爾達維亞</t>
+    <t>摩尔达维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%B0%E8%A5%BF%E7%93%A6%E5%B0%BC%E4%BA%9A</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B%E7%9A%84%E9%99%84%E5%B1%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧斯曼帝國的附屬國</t>
+    <t>奥斯曼帝国的附属国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AF%94%E8%96%A9%E6%8B%89%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>南比薩拉比亞</t>
+    <t>南比萨拉比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%96%E5%BE%B7%E8%90%A8</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬尼亞王國</t>
+    <t>罗马尼亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6%E8%8B%8F%E7%BB%B4%E5%9F%83%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -707,9 +707,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6%E6%80%BB%E7%90%86</t>
   </si>
   <si>
-    <t>摩尔多瓦总理</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6%E5%85%B1%E4%BA%A7%E5%85%9A%E4%BA%BA%E5%85%9A</t>
   </si>
   <si>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際特赦組織</t>
+    <t>国际特赦组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B7%E5%88%91</t>
@@ -773,13 +770,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90</t>
   </si>
   <si>
-    <t>東歐</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%99%A4%E6%AD%BB%E5%88%91</t>
   </si>
   <si>
-    <t>廢除死刑</t>
+    <t>废除死刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%B6%85%E6%96%AF%E7%89%B9%E6%B2%B3%E6%B2%BF%E5%B2%B8%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -815,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%88%80%E8%80%85</t>
   </si>
   <si>
-    <t>同性戀者</t>
+    <t>同性恋者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E6%8B%89%E6%96%AF%E6%B3%A2%E7%88%BE</t>
   </si>
   <si>
-    <t>蒂拉斯波爾</t>
+    <t>蒂拉斯波尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -833,15 +827,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%B6%85%E6%96%AF%E7%89%B9%E6%B2%B3</t>
   </si>
   <si>
@@ -851,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>摩爾多瓦經濟</t>
+    <t>摩尔多瓦经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -863,13 +851,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
+    <t>阿尔巴尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E6%9D%B0%E9%87%8C</t>
@@ -881,19 +869,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B6%E6%96%AF%E7%89%B9%E6%B2%B3</t>
   </si>
   <si>
-    <t>聶斯特河</t>
+    <t>聂斯特河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E5%8F%8A%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6%E7%B5%B1%E4%B8%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>羅馬尼亞及摩爾多瓦統一運動</t>
+    <t>罗马尼亚及摩尔多瓦统一运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6%E8%AA%9E%E8%A8%80%E5%92%8C%E6%B0%91%E6%97%8F%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>摩爾多瓦語言和民族問題</t>
+    <t>摩尔多瓦语言和民族问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
@@ -905,9 +893,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
   </si>
   <si>
-    <t>摩爾多瓦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Europe</t>
   </si>
   <si>
@@ -917,9 +902,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
-    <t>欧洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
   </si>
   <si>
@@ -1061,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1085,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1097,13 +1079,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1115,19 +1097,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -1145,13 +1124,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
@@ -1169,25 +1148,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -1217,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1235,19 +1214,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>揚馬延島</t>
+    <t>扬马延岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -1265,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1355,13 +1334,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -1379,25 +1358,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E5%A4%9A</t>
   </si>
   <si>
-    <t>巴貝多</t>
+    <t>巴贝多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E6%96%AF</t>
   </si>
   <si>
-    <t>貝里斯</t>
+    <t>贝里斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8D%97</t>
   </si>
   <si>
-    <t>貝南</t>
+    <t>贝南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3</t>
@@ -1415,13 +1394,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1439,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
   </si>
   <si>
-    <t>喀麥隆</t>
+    <t>喀麦隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -1451,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -1475,13 +1454,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0</t>
@@ -1505,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0</t>
@@ -1523,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A</t>
@@ -1541,19 +1520,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
@@ -1565,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>甘比亞</t>
+    <t>甘比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
@@ -1577,37 +1553,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>迦納</t>
+    <t>迦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>瓜地馬拉</t>
+    <t>瓜地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>幾內亞</t>
+    <t>几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>蓋亞那</t>
+    <t>盖亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
@@ -1631,9 +1607,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
@@ -1643,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞</t>
+    <t>印度尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -1655,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -1667,13 +1640,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -1691,55 +1664,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>馬達加斯加</t>
+    <t>马达加斯加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E7%B6%AD</t>
   </si>
   <si>
-    <t>馬拉維</t>
+    <t>马拉维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
@@ -1757,7 +1730,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古國</t>
+    <t>蒙古国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -1775,25 +1748,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>納米比亞</t>
+    <t>纳米比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
+    <t>尼泊尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -1811,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
@@ -1829,13 +1802,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
+    <t>巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9E%E7%B4%90%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴布亞紐幾內亞</t>
+    <t>巴布亚纽几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -1853,49 +1826,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94</t>
   </si>
   <si>
-    <t>盧安達</t>
+    <t>卢安达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E5%8F%8A%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福及尼維斯</t>
+    <t>圣克里斯多福及尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>聖露西亞</t>
+    <t>圣露西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>聖文森</t>
+    <t>圣文森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>塞內加爾</t>
+    <t>塞内加尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
@@ -1913,7 +1886,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BE%85%E9%96%80%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>索羅門群島</t>
+    <t>索罗门群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -1925,31 +1898,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E6%BE%8E%E9%87%91%E9%A6%AC%E5%80%8B%E5%88%A5%E9%97%9C%E7%A8%85%E9%A0%98%E5%9F%9F</t>
   </si>
   <si>
-    <t>臺澎金馬個別關稅領域</t>
+    <t>台澎金马个别关税领域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B0%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>坦尚尼亞</t>
+    <t>坦尚尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -1961,37 +1934,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
+    <t>乌干达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>烏拉圭</t>
+    <t>乌拉圭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
@@ -2009,7 +1982,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -2021,15 +1994,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BE%B7%E8%A7%92</t>
   </si>
   <si>
-    <t>維德角</t>
+    <t>维德角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
   </si>
   <si>
@@ -2045,109 +2015,79 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
   </si>
   <si>
-    <t>荷兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E8%81%AF%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立國家聯合體</t>
+    <t>独立国家联合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
@@ -2189,7 +2129,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%81%AF%E9%AB%94%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>獨聯體國家足球隊</t>
+    <t>独联体国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%81%94%E4%BD%93%E6%9D%AF</t>
@@ -2213,19 +2153,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>歐亞經濟共同體</t>
+    <t>欧亚经济共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E8%88%AA%E7%A9%BA%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>州際航空委員會</t>
+    <t>州际航空委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
@@ -2237,15 +2177,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
   </si>
   <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
   </si>
   <si>
@@ -2261,15 +2195,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>刚果共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
   </si>
   <si>
@@ -2297,9 +2225,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
   </si>
   <si>
-    <t>几内亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
   </si>
   <si>
@@ -2321,9 +2246,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
   </si>
   <si>
@@ -2345,7 +2267,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -2381,9 +2303,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
   </si>
   <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
   </si>
   <si>
@@ -2411,7 +2330,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
@@ -2459,19 +2378,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>泰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -2489,13 +2402,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
@@ -2519,15 +2432,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
   </si>
   <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
@@ -2549,15 +2456,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
   </si>
   <si>
@@ -2567,9 +2468,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
@@ -2579,37 +2477,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加泰羅尼亞語</t>
+    <t>加泰罗尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>義大利語</t>
+    <t>义大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2633,13 +2531,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3361,7 +3259,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -6548,7 +6446,7 @@
         <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -6574,10 +6472,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>230</v>
+      </c>
+      <c r="F124" t="s">
         <v>231</v>
-      </c>
-      <c r="F124" t="s">
-        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6603,10 +6501,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>232</v>
+      </c>
+      <c r="F125" t="s">
         <v>233</v>
-      </c>
-      <c r="F125" t="s">
-        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6632,10 +6530,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>234</v>
+      </c>
+      <c r="F126" t="s">
         <v>235</v>
-      </c>
-      <c r="F126" t="s">
-        <v>236</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6661,10 +6559,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>236</v>
+      </c>
+      <c r="F127" t="s">
         <v>237</v>
-      </c>
-      <c r="F127" t="s">
-        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6690,10 +6588,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>238</v>
+      </c>
+      <c r="F128" t="s">
         <v>239</v>
-      </c>
-      <c r="F128" t="s">
-        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6719,10 +6617,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>240</v>
+      </c>
+      <c r="F129" t="s">
         <v>241</v>
-      </c>
-      <c r="F129" t="s">
-        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6748,10 +6646,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>242</v>
+      </c>
+      <c r="F130" t="s">
         <v>243</v>
-      </c>
-      <c r="F130" t="s">
-        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6777,10 +6675,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>244</v>
+      </c>
+      <c r="F131" t="s">
         <v>245</v>
-      </c>
-      <c r="F131" t="s">
-        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6806,10 +6704,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>246</v>
+      </c>
+      <c r="F132" t="s">
         <v>247</v>
-      </c>
-      <c r="F132" t="s">
-        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6835,10 +6733,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>248</v>
+      </c>
+      <c r="F133" t="s">
         <v>249</v>
-      </c>
-      <c r="F133" t="s">
-        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6864,10 +6762,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6893,10 +6791,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6922,10 +6820,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6951,10 +6849,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6980,10 +6878,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7009,10 +6907,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7038,10 +6936,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7067,10 +6965,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7096,10 +6994,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7125,10 +7023,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7154,10 +7052,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -7183,10 +7081,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="G145" t="n">
         <v>13</v>
@@ -7212,10 +7110,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>11</v>
@@ -7241,10 +7139,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7270,10 +7168,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7299,10 +7197,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -7328,10 +7226,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7357,10 +7255,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7386,10 +7284,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7415,10 +7313,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7444,10 +7342,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7473,10 +7371,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7502,10 +7400,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="G156" t="n">
         <v>18</v>
@@ -7531,10 +7429,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G157" t="n">
         <v>7</v>
@@ -7560,10 +7458,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7589,10 +7487,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7618,10 +7516,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -7647,10 +7545,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -7676,10 +7574,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7705,10 +7603,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7734,10 +7632,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7763,10 +7661,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7792,10 +7690,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7821,10 +7719,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7850,10 +7748,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7879,10 +7777,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7908,10 +7806,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -7937,10 +7835,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7966,10 +7864,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7995,10 +7893,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8024,10 +7922,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>4</v>
@@ -8053,10 +7951,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8082,10 +7980,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -8111,10 +8009,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -8140,10 +8038,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>4</v>
@@ -8169,10 +8067,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -8198,10 +8096,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -8227,10 +8125,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -8256,10 +8154,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8285,10 +8183,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>7</v>
@@ -8314,10 +8212,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -8343,10 +8241,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8372,10 +8270,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -8401,10 +8299,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -8430,10 +8328,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8459,10 +8357,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8488,10 +8386,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8517,10 +8415,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8546,10 +8444,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8575,10 +8473,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8604,10 +8502,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8633,10 +8531,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8662,10 +8560,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -8691,10 +8589,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G197" t="n">
         <v>4</v>
@@ -8720,10 +8618,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8749,10 +8647,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8778,10 +8676,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8807,10 +8705,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -8836,10 +8734,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8865,10 +8763,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8894,10 +8792,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8923,10 +8821,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G205" t="n">
         <v>4</v>
@@ -8952,10 +8850,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G206" t="n">
         <v>4</v>
@@ -8981,10 +8879,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -9010,10 +8908,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9039,10 +8937,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9068,10 +8966,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9097,10 +8995,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9126,10 +9024,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9155,10 +9053,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9184,10 +9082,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9213,10 +9111,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9242,10 +9140,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9271,10 +9169,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9300,10 +9198,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9329,10 +9227,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9358,10 +9256,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9387,10 +9285,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9416,10 +9314,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9445,10 +9343,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -9474,10 +9372,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9503,10 +9401,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9532,10 +9430,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9561,10 +9459,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -9590,10 +9488,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9619,10 +9517,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9648,10 +9546,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -9677,10 +9575,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -9706,10 +9604,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9735,10 +9633,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9764,10 +9662,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9793,10 +9691,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9822,10 +9720,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9851,10 +9749,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9880,10 +9778,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9909,10 +9807,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9938,10 +9836,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9967,10 +9865,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9996,10 +9894,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10025,10 +9923,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10054,10 +9952,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10083,10 +9981,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10112,10 +10010,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10141,10 +10039,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -10170,10 +10068,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10199,10 +10097,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10228,10 +10126,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10257,10 +10155,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10286,10 +10184,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10315,10 +10213,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10344,10 +10242,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10373,10 +10271,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10402,10 +10300,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10431,10 +10329,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10460,10 +10358,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10489,10 +10387,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10518,10 +10416,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10547,10 +10445,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -10576,10 +10474,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10605,10 +10503,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>216</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10634,10 +10532,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10663,10 +10561,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F265" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10692,10 +10590,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10721,10 +10619,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10750,10 +10648,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
@@ -10779,10 +10677,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10808,10 +10706,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10837,10 +10735,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10866,10 +10764,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G272" t="n">
         <v>5</v>
@@ -10895,10 +10793,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -10924,10 +10822,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10953,10 +10851,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -10982,10 +10880,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11011,10 +10909,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11040,10 +10938,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>322</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11069,10 +10967,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11098,10 +10996,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11127,10 +11025,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11156,10 +11054,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11185,10 +11083,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11214,10 +11112,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11243,10 +11141,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11272,10 +11170,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11301,10 +11199,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11330,10 +11228,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11359,10 +11257,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11388,10 +11286,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11417,10 +11315,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11446,10 +11344,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11475,10 +11373,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11504,10 +11402,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11533,10 +11431,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11562,10 +11460,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11591,10 +11489,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11620,10 +11518,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
@@ -11649,10 +11547,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11678,10 +11576,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11707,10 +11605,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11736,10 +11634,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11765,10 +11663,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11794,10 +11692,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11823,10 +11721,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11852,10 +11750,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11881,10 +11779,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11910,10 +11808,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11939,10 +11837,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11968,10 +11866,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11997,10 +11895,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12026,10 +11924,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12055,10 +11953,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12084,10 +11982,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -12113,10 +12011,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12142,10 +12040,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12171,10 +12069,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12200,10 +12098,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12229,10 +12127,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12258,10 +12156,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12287,10 +12185,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12316,10 +12214,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12345,10 +12243,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12374,10 +12272,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12403,10 +12301,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12432,10 +12330,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12461,10 +12359,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12490,10 +12388,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12519,10 +12417,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12548,10 +12446,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12577,10 +12475,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12606,10 +12504,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12635,10 +12533,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12664,10 +12562,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12693,10 +12591,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12722,10 +12620,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12751,10 +12649,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12780,10 +12678,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12809,10 +12707,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12838,10 +12736,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12867,10 +12765,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F341" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12896,10 +12794,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12925,10 +12823,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12954,10 +12852,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>308</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12983,10 +12881,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13012,10 +12910,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -13041,10 +12939,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>314</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13070,10 +12968,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>348</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13099,10 +12997,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>316</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13128,10 +13026,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>298</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -13157,10 +13055,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>326</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13186,10 +13084,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>375</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13215,10 +13113,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13244,10 +13142,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>310</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13273,10 +13171,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13302,10 +13200,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13331,10 +13229,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13360,10 +13258,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13389,10 +13287,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13418,10 +13316,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>328</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13447,10 +13345,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>302</v>
       </c>
       <c r="G361" t="n">
         <v>5</v>
@@ -13476,10 +13374,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13505,10 +13403,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13534,10 +13432,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="G364" t="n">
         <v>3</v>
@@ -13563,10 +13461,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13592,10 +13490,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13621,10 +13519,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13650,10 +13548,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13679,10 +13577,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13708,10 +13606,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13737,10 +13635,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13766,10 +13664,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13795,10 +13693,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13824,10 +13722,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13853,10 +13751,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13882,10 +13780,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13911,10 +13809,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
@@ -13940,10 +13838,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F378" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13969,10 +13867,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="F379" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13998,10 +13896,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="F380" t="s">
-        <v>740</v>
+        <v>363</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -14027,10 +13925,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="F381" t="s">
-        <v>742</v>
+        <v>467</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14056,10 +13954,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="F382" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -14085,10 +13983,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="F383" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14114,10 +14012,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="F384" t="s">
-        <v>748</v>
+        <v>489</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14143,10 +14041,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="F385" t="s">
-        <v>750</v>
+        <v>481</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14172,10 +14070,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="F386" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14201,10 +14099,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="F387" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14230,10 +14128,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
       <c r="F388" t="s">
-        <v>756</v>
+        <v>732</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14259,10 +14157,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="F389" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14288,10 +14186,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="F390" t="s">
-        <v>760</v>
+        <v>518</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14317,10 +14215,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="F391" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14346,10 +14244,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="F392" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14375,10 +14273,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="F393" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14404,10 +14302,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F394" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14433,10 +14331,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="F395" t="s">
-        <v>768</v>
+        <v>555</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14462,10 +14360,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="F396" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14491,10 +14389,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
       <c r="F397" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14520,10 +14418,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="F398" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14549,10 +14447,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="F399" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14578,10 +14476,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="F400" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14607,10 +14505,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="F401" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14636,10 +14534,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="F402" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14665,10 +14563,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="F403" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14694,10 +14592,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>785</v>
+        <v>759</v>
       </c>
       <c r="F404" t="s">
-        <v>786</v>
+        <v>760</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -14723,10 +14621,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="F405" t="s">
-        <v>788</v>
+        <v>617</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -14752,10 +14650,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>789</v>
+        <v>762</v>
       </c>
       <c r="F406" t="s">
-        <v>790</v>
+        <v>763</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14781,10 +14679,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>791</v>
+        <v>764</v>
       </c>
       <c r="F407" t="s">
-        <v>792</v>
+        <v>765</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14810,10 +14708,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>793</v>
+        <v>766</v>
       </c>
       <c r="F408" t="s">
-        <v>794</v>
+        <v>767</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14839,10 +14737,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>795</v>
+        <v>768</v>
       </c>
       <c r="F409" t="s">
-        <v>796</v>
+        <v>769</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14868,10 +14766,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>797</v>
+        <v>770</v>
       </c>
       <c r="F410" t="s">
-        <v>798</v>
+        <v>771</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14897,10 +14795,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>799</v>
+        <v>772</v>
       </c>
       <c r="F411" t="s">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14926,10 +14824,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F412" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14955,10 +14853,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>801</v>
+        <v>774</v>
       </c>
       <c r="F413" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -14984,10 +14882,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="F414" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15013,10 +14911,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F415" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15042,10 +14940,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="F416" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15071,10 +14969,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
       <c r="F417" t="s">
-        <v>808</v>
+        <v>781</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15100,10 +14998,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>809</v>
+        <v>782</v>
       </c>
       <c r="F418" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15129,10 +15027,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="G419" t="n">
         <v>3</v>
@@ -15158,10 +15056,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>635</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15187,10 +15085,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>649</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15216,10 +15114,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>788</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>789</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15245,10 +15143,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>819</v>
+        <v>790</v>
       </c>
       <c r="F423" t="s">
-        <v>820</v>
+        <v>791</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15274,10 +15172,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>821</v>
+        <v>792</v>
       </c>
       <c r="F424" t="s">
-        <v>822</v>
+        <v>793</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15303,10 +15201,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>823</v>
+        <v>794</v>
       </c>
       <c r="F425" t="s">
-        <v>824</v>
+        <v>795</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15332,10 +15230,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>825</v>
+        <v>796</v>
       </c>
       <c r="F426" t="s">
-        <v>826</v>
+        <v>797</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15361,10 +15259,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>827</v>
+        <v>798</v>
       </c>
       <c r="F427" t="s">
-        <v>828</v>
+        <v>799</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15390,10 +15288,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>829</v>
+        <v>800</v>
       </c>
       <c r="F428" t="s">
-        <v>830</v>
+        <v>801</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15419,10 +15317,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>831</v>
+        <v>802</v>
       </c>
       <c r="F429" t="s">
-        <v>832</v>
+        <v>803</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15448,10 +15346,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>833</v>
+        <v>804</v>
       </c>
       <c r="F430" t="s">
-        <v>834</v>
+        <v>595</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15477,10 +15375,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>835</v>
+        <v>805</v>
       </c>
       <c r="F431" t="s">
-        <v>836</v>
+        <v>501</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15506,10 +15404,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
       <c r="F432" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15535,10 +15433,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="F433" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15564,10 +15462,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
       <c r="F434" t="s">
-        <v>842</v>
+        <v>811</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15593,10 +15491,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>843</v>
+        <v>812</v>
       </c>
       <c r="F435" t="s">
-        <v>844</v>
+        <v>651</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15622,10 +15520,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>845</v>
+        <v>813</v>
       </c>
       <c r="F436" t="s">
-        <v>846</v>
+        <v>479</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15651,10 +15549,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="F437" t="s">
-        <v>848</v>
+        <v>815</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15680,10 +15578,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
       <c r="F438" t="s">
-        <v>850</v>
+        <v>603</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15709,10 +15607,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>851</v>
+        <v>817</v>
       </c>
       <c r="F439" t="s">
-        <v>852</v>
+        <v>818</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15738,10 +15636,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>853</v>
+        <v>819</v>
       </c>
       <c r="F440" t="s">
-        <v>854</v>
+        <v>820</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15767,10 +15665,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="F441" t="s">
-        <v>856</v>
+        <v>822</v>
       </c>
       <c r="G441" t="n">
         <v>5</v>
@@ -15796,10 +15694,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>857</v>
+        <v>823</v>
       </c>
       <c r="F442" t="s">
-        <v>858</v>
+        <v>824</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15825,10 +15723,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="F443" t="s">
-        <v>860</v>
+        <v>826</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15854,10 +15752,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="F444" t="s">
-        <v>862</v>
+        <v>828</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15883,10 +15781,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="F445" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="G445" t="n">
         <v>3</v>
@@ -15912,10 +15810,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="F446" t="s">
-        <v>866</v>
+        <v>832</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15941,10 +15839,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="F447" t="s">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15970,10 +15868,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>869</v>
+        <v>835</v>
       </c>
       <c r="F448" t="s">
-        <v>870</v>
+        <v>836</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -15999,10 +15897,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="F449" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16028,10 +15926,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="F450" t="s">
-        <v>874</v>
+        <v>840</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>

--- a/xlsx/摩尔多瓦_intext.xlsx
+++ b/xlsx/摩尔多瓦_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="879">
   <si>
     <t>摩尔多瓦</t>
   </si>
@@ -23,27 +23,15 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>化学年表</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
-  </si>
-  <si>
-    <t>散文</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%B0%94%E5%A4%9A%E7%93%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>莫尔多瓦共和国</t>
   </si>
   <si>
+    <t>体育运动_体育运动_南非_摩尔多瓦</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
@@ -944,10 +932,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1058,18 +1070,18 @@
     <t>列支敦斯登</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -1178,18 +1190,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1214,10 +1226,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1268,16 +1280,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1286,10 +1304,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -2094,12 +2112,6 @@
   </si>
   <si>
     <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
-  </si>
-  <si>
-    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
@@ -2988,7 +3000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I450"/>
+  <dimension ref="A1:I453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3100,7 +3112,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -3158,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -3187,7 +3199,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -3210,10 +3222,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -3239,13 +3251,13 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -3274,7 +3286,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -3303,7 +3315,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -3332,7 +3344,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -3361,7 +3373,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -3390,7 +3402,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -3419,7 +3431,7 @@
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -3448,7 +3460,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -3477,7 +3489,7 @@
         <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -3535,7 +3547,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -3622,7 +3634,7 @@
         <v>42</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -3645,13 +3657,13 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -3674,13 +3686,13 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -3703,10 +3715,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3732,13 +3744,13 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -3767,7 +3779,7 @@
         <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -3796,7 +3808,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -3825,7 +3837,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -3854,7 +3866,7 @@
         <v>54</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -3883,7 +3895,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -3912,7 +3924,7 @@
         <v>58</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -3941,7 +3953,7 @@
         <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -4231,7 +4243,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -4289,7 +4301,7 @@
         <v>84</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -4434,7 +4446,7 @@
         <v>94</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -4463,7 +4475,7 @@
         <v>96</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -4492,7 +4504,7 @@
         <v>98</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -4521,7 +4533,7 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -4544,13 +4556,13 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -4573,10 +4585,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4602,13 +4614,13 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -4666,7 +4678,7 @@
         <v>108</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -4695,7 +4707,7 @@
         <v>110</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -4724,7 +4736,7 @@
         <v>112</v>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -4753,7 +4765,7 @@
         <v>114</v>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -4892,10 +4904,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4921,10 +4933,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4950,10 +4962,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5043,7 +5055,7 @@
         <v>132</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -5072,7 +5084,7 @@
         <v>134</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -5101,7 +5113,7 @@
         <v>136</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -5130,7 +5142,7 @@
         <v>138</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -5188,7 +5200,7 @@
         <v>142</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -5217,7 +5229,7 @@
         <v>144</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -5246,7 +5258,7 @@
         <v>146</v>
       </c>
       <c r="G78" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -5275,7 +5287,7 @@
         <v>148</v>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -5304,7 +5316,7 @@
         <v>150</v>
       </c>
       <c r="G80" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -5333,7 +5345,7 @@
         <v>152</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -5362,7 +5374,7 @@
         <v>154</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -5391,7 +5403,7 @@
         <v>156</v>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -5420,7 +5432,7 @@
         <v>158</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -5449,7 +5461,7 @@
         <v>160</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -5507,7 +5519,7 @@
         <v>164</v>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -5530,10 +5542,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5559,13 +5571,13 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -5588,13 +5600,13 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -5617,13 +5629,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -5652,7 +5664,7 @@
         <v>170</v>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -5681,7 +5693,7 @@
         <v>172</v>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -5710,7 +5722,7 @@
         <v>174</v>
       </c>
       <c r="G94" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -5768,7 +5780,7 @@
         <v>178</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -5826,7 +5838,7 @@
         <v>182</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -5855,7 +5867,7 @@
         <v>184</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -5884,7 +5896,7 @@
         <v>186</v>
       </c>
       <c r="G100" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -5913,7 +5925,7 @@
         <v>188</v>
       </c>
       <c r="G101" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -6174,7 +6186,7 @@
         <v>206</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -6232,7 +6244,7 @@
         <v>210</v>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -6290,7 +6302,7 @@
         <v>214</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -6348,7 +6360,7 @@
         <v>218</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -6435,7 +6447,7 @@
         <v>224</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -6458,13 +6470,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -6487,13 +6499,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -6516,13 +6528,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -6551,7 +6563,7 @@
         <v>230</v>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -6580,7 +6592,7 @@
         <v>232</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -6783,7 +6795,7 @@
         <v>246</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6841,7 +6853,7 @@
         <v>250</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -6899,7 +6911,7 @@
         <v>254</v>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -7102,7 +7114,7 @@
         <v>268</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -7131,7 +7143,7 @@
         <v>270</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -7160,7 +7172,7 @@
         <v>272</v>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -7189,7 +7201,7 @@
         <v>274</v>
       </c>
       <c r="G145" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -7218,7 +7230,7 @@
         <v>276</v>
       </c>
       <c r="G146" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -7247,7 +7259,7 @@
         <v>278</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -7276,7 +7288,7 @@
         <v>280</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -7305,7 +7317,7 @@
         <v>282</v>
       </c>
       <c r="G149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -7334,7 +7346,7 @@
         <v>284</v>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -7450,7 +7462,7 @@
         <v>292</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -7479,7 +7491,7 @@
         <v>294</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -7508,7 +7520,7 @@
         <v>296</v>
       </c>
       <c r="G156" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -7537,7 +7549,7 @@
         <v>298</v>
       </c>
       <c r="G157" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -7566,7 +7578,7 @@
         <v>300</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -7595,7 +7607,7 @@
         <v>302</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -7624,7 +7636,7 @@
         <v>304</v>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -7653,7 +7665,7 @@
         <v>306</v>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7769,7 +7781,7 @@
         <v>314</v>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7798,7 +7810,7 @@
         <v>316</v>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7827,7 +7839,7 @@
         <v>318</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -7856,7 +7868,7 @@
         <v>320</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -7914,7 +7926,7 @@
         <v>324</v>
       </c>
       <c r="G170" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -7943,7 +7955,7 @@
         <v>326</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7972,7 +7984,7 @@
         <v>328</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -8001,7 +8013,7 @@
         <v>330</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -8030,7 +8042,7 @@
         <v>332</v>
       </c>
       <c r="G174" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -8059,7 +8071,7 @@
         <v>334</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -8088,7 +8100,7 @@
         <v>336</v>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -8117,7 +8129,7 @@
         <v>338</v>
       </c>
       <c r="G177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -8146,7 +8158,7 @@
         <v>340</v>
       </c>
       <c r="G178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -8204,7 +8216,7 @@
         <v>344</v>
       </c>
       <c r="G180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -8233,7 +8245,7 @@
         <v>346</v>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -8262,7 +8274,7 @@
         <v>348</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -8291,7 +8303,7 @@
         <v>350</v>
       </c>
       <c r="G183" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -8314,13 +8326,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>131</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>132</v>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -8343,13 +8355,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -8372,13 +8384,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -8401,13 +8413,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -8430,10 +8442,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8459,13 +8471,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -8488,13 +8500,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8517,13 +8529,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8546,13 +8558,13 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8575,10 +8587,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8604,13 +8616,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -8633,13 +8645,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8662,13 +8674,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -8691,13 +8703,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -8720,13 +8732,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8749,13 +8761,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8778,13 +8790,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8807,13 +8819,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -8836,13 +8848,13 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8865,10 +8877,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8894,13 +8906,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -8923,13 +8935,13 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -8952,13 +8964,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -8981,13 +8993,13 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -9010,13 +9022,13 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -9039,13 +9051,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -9068,13 +9080,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -9097,10 +9109,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9126,10 +9138,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9155,10 +9167,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9184,10 +9196,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9213,10 +9225,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9242,13 +9254,13 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -9271,13 +9283,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9300,10 +9312,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9329,10 +9341,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9358,10 +9370,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9387,13 +9399,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -9416,13 +9428,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -9445,13 +9457,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -9474,10 +9486,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9503,10 +9515,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9532,13 +9544,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -9561,10 +9573,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -9590,13 +9602,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -9619,10 +9631,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9648,13 +9660,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9677,10 +9689,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -9706,13 +9718,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -9735,10 +9747,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9764,13 +9776,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9793,13 +9805,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9822,10 +9834,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9851,10 +9863,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9880,13 +9892,13 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -9909,10 +9921,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9938,13 +9950,13 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -9967,10 +9979,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9996,10 +10008,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10025,13 +10037,13 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -10054,10 +10066,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10083,10 +10095,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10112,10 +10124,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10141,10 +10153,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -10170,10 +10182,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10199,13 +10211,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10228,13 +10240,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10257,13 +10269,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10286,13 +10298,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10315,13 +10327,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10344,10 +10356,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10373,13 +10385,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -10402,10 +10414,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10431,10 +10443,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10460,10 +10472,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10489,13 +10501,13 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10518,13 +10530,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10547,13 +10559,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10576,10 +10588,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10605,13 +10617,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10634,13 +10646,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10663,13 +10675,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>375</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>376</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10727,7 +10739,7 @@
         <v>516</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10756,7 +10768,7 @@
         <v>518</v>
       </c>
       <c r="G268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10779,10 +10791,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>379</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10808,10 +10820,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10837,10 +10849,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10866,13 +10878,13 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G272" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10895,13 +10907,13 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10924,10 +10936,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10953,13 +10965,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -10982,13 +10994,13 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11011,13 +11023,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11040,10 +11052,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11069,13 +11081,13 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G279" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -11098,10 +11110,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11127,10 +11139,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11156,10 +11168,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11185,13 +11197,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11214,10 +11226,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11243,10 +11255,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11272,10 +11284,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11301,10 +11313,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11330,10 +11342,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11359,10 +11371,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11388,10 +11400,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11417,10 +11429,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11446,10 +11458,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11475,10 +11487,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11504,10 +11516,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11533,10 +11545,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11562,10 +11574,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11591,10 +11603,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11620,13 +11632,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G298" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11649,10 +11661,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11678,13 +11690,13 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -11707,10 +11719,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11736,13 +11748,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11765,10 +11777,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11794,13 +11806,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11823,10 +11835,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11852,13 +11864,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -11881,13 +11893,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -11910,10 +11922,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11939,10 +11951,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11968,13 +11980,13 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -11997,13 +12009,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12026,10 +12038,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12055,13 +12067,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12084,13 +12096,13 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12113,10 +12125,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12142,10 +12154,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12171,13 +12183,13 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12200,13 +12212,13 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12229,10 +12241,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12258,10 +12270,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12287,10 +12299,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12316,10 +12328,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12345,10 +12357,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12374,10 +12386,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12403,10 +12415,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12432,10 +12444,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12461,10 +12473,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12490,10 +12502,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12519,13 +12531,13 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12548,10 +12560,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12577,10 +12589,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12606,13 +12618,13 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12635,13 +12647,13 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12664,13 +12676,13 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -12693,10 +12705,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12722,13 +12734,13 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -12751,13 +12763,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12780,10 +12792,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12809,10 +12821,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12838,13 +12850,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -12867,13 +12879,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F341" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -12896,13 +12908,13 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -12925,10 +12937,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12954,13 +12966,13 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -12983,10 +12995,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13012,13 +13024,13 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13041,13 +13053,13 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13070,10 +13082,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13099,10 +13111,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13128,10 +13140,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -13157,13 +13169,13 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -13186,10 +13198,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13215,10 +13227,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13244,13 +13256,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13273,13 +13285,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13302,10 +13314,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13331,10 +13343,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13360,10 +13372,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13389,13 +13401,13 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -13418,10 +13430,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13447,13 +13459,13 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G361" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -13476,10 +13488,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13505,10 +13517,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13534,13 +13546,13 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G364" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13563,10 +13575,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13592,10 +13604,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13621,13 +13633,13 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -13650,10 +13662,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13679,10 +13691,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13708,10 +13720,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13737,10 +13749,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13766,10 +13778,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13795,10 +13807,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13824,10 +13836,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13853,10 +13865,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13882,10 +13894,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13911,13 +13923,13 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G377" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -13940,10 +13952,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>367</v>
+        <v>735</v>
       </c>
       <c r="F378" t="s">
-        <v>368</v>
+        <v>736</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14004,7 +14016,7 @@
         <v>740</v>
       </c>
       <c r="G380" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14027,10 +14039,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>741</v>
+        <v>371</v>
       </c>
       <c r="F381" t="s">
-        <v>742</v>
+        <v>372</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14056,13 +14068,13 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F382" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -14085,13 +14097,13 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F383" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -14114,10 +14126,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F384" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14143,13 +14155,13 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F385" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -14172,13 +14184,13 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F386" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -14201,10 +14213,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F387" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14230,10 +14242,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F388" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14259,13 +14271,13 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F389" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -14288,13 +14300,13 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F390" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -14317,10 +14329,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F391" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14346,10 +14358,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F392" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14375,13 +14387,13 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F393" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -14404,13 +14416,13 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>375</v>
+        <v>765</v>
       </c>
       <c r="F394" t="s">
-        <v>376</v>
+        <v>766</v>
       </c>
       <c r="G394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -14468,7 +14480,7 @@
         <v>770</v>
       </c>
       <c r="G396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -14491,13 +14503,13 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>771</v>
+        <v>379</v>
       </c>
       <c r="F397" t="s">
-        <v>772</v>
+        <v>380</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -14520,10 +14532,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F398" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14549,13 +14561,13 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F399" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -14578,10 +14590,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F400" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14607,10 +14619,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F401" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14636,10 +14648,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F402" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14665,10 +14677,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F403" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14694,13 +14706,13 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F404" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -14723,13 +14735,13 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F405" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H405" t="s">
         <v>4</v>
@@ -14752,10 +14764,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F406" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14781,13 +14793,13 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F407" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
@@ -14810,13 +14822,13 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F408" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H408" t="s">
         <v>4</v>
@@ -14839,10 +14851,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F409" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14868,10 +14880,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F410" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14897,10 +14909,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F411" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14926,10 +14938,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>553</v>
+        <v>799</v>
       </c>
       <c r="F412" t="s">
-        <v>554</v>
+        <v>800</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14961,7 +14973,7 @@
         <v>802</v>
       </c>
       <c r="G413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -15013,10 +15025,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>365</v>
+        <v>559</v>
       </c>
       <c r="F415" t="s">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15100,10 +15112,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>809</v>
+        <v>369</v>
       </c>
       <c r="F418" t="s">
-        <v>810</v>
+        <v>370</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15129,13 +15141,13 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F419" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -15158,10 +15170,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F420" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15187,10 +15199,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F421" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15216,13 +15228,13 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F422" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G422" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -15245,10 +15257,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F423" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15274,10 +15286,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F424" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15303,10 +15315,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F425" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15332,10 +15344,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F426" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15361,10 +15373,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F427" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15390,10 +15402,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F428" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15419,10 +15431,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F429" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15448,10 +15460,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F430" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15477,10 +15489,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F431" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15506,10 +15518,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F432" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15535,10 +15547,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F433" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15564,10 +15576,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F434" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15593,10 +15605,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F435" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15622,10 +15634,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F436" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15651,10 +15663,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F437" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15680,10 +15692,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F438" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15709,10 +15721,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F439" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15738,10 +15750,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F440" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15767,13 +15779,13 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F441" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G441" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -15796,10 +15808,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F442" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15825,10 +15837,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F443" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15854,13 +15866,13 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F444" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G444" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H444" t="s">
         <v>4</v>
@@ -15883,13 +15895,13 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F445" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G445" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -15912,10 +15924,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F446" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15941,10 +15953,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F447" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15970,13 +15982,13 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F448" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G448" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H448" t="s">
         <v>4</v>
@@ -15999,10 +16011,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F449" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16028,18 +16040,105 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
+        <v>871</v>
+      </c>
+      <c r="F450" t="s">
+        <v>872</v>
+      </c>
+      <c r="G450" t="n">
+        <v>1</v>
+      </c>
+      <c r="H450" t="s">
+        <v>4</v>
+      </c>
+      <c r="I450" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>0</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1</v>
+      </c>
+      <c r="D451" t="n">
+        <v>450</v>
+      </c>
+      <c r="E451" t="s">
         <v>873</v>
       </c>
-      <c r="F450" t="s">
+      <c r="F451" t="s">
         <v>874</v>
       </c>
-      <c r="G450" t="n">
-        <v>1</v>
-      </c>
-      <c r="H450" t="s">
-        <v>4</v>
-      </c>
-      <c r="I450" t="n">
+      <c r="G451" t="n">
+        <v>1</v>
+      </c>
+      <c r="H451" t="s">
+        <v>4</v>
+      </c>
+      <c r="I451" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1</v>
+      </c>
+      <c r="D452" t="n">
+        <v>451</v>
+      </c>
+      <c r="E452" t="s">
+        <v>875</v>
+      </c>
+      <c r="F452" t="s">
+        <v>876</v>
+      </c>
+      <c r="G452" t="n">
+        <v>1</v>
+      </c>
+      <c r="H452" t="s">
+        <v>4</v>
+      </c>
+      <c r="I452" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>0</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1</v>
+      </c>
+      <c r="D453" t="n">
+        <v>452</v>
+      </c>
+      <c r="E453" t="s">
+        <v>877</v>
+      </c>
+      <c r="F453" t="s">
+        <v>878</v>
+      </c>
+      <c r="G453" t="n">
+        <v>1</v>
+      </c>
+      <c r="H453" t="s">
+        <v>4</v>
+      </c>
+      <c r="I453" t="n">
         <v>3</v>
       </c>
     </row>
